--- a/exportdata/conversion.xlsx
+++ b/exportdata/conversion.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Round#</t>
   </si>
@@ -42,76 +42,19 @@
     <t>Subcategory</t>
   </si>
   <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Popular Culture</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>American History</t>
-  </si>
-  <si>
     <t>Literature</t>
-  </si>
-  <si>
-    <t>Drama</t>
-  </si>
-  <si>
-    <t>Geography</t>
   </si>
   <si>
     <t>Short Fiction/Other</t>
   </si>
   <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>World/Commonwealth History</t>
-  </si>
-  <si>
     <t>Long Fiction</t>
   </si>
   <si>
-    <t>Thought</t>
+    <t>Science</t>
   </si>
   <si>
-    <t>Philosophy</t>
-  </si>
-  <si>
-    <t>Beliefs</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Fine Arts</t>
-  </si>
-  <si>
-    <t>Visual Fine Arts</t>
-  </si>
-  <si>
-    <t>European/British History</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Mythology</t>
-  </si>
-  <si>
-    <t>Auditory Fine Arts</t>
-  </si>
-  <si>
-    <t>Other Science</t>
+    <t>Biology</t>
   </si>
   <si>
     <t>Bonus#</t>
@@ -129,13 +72,13 @@
     <t>0's</t>
   </si>
   <si>
-    <t>Miscellaneous/Other Academic</t>
+    <t>Drama</t>
   </si>
   <si>
-    <t>Ancient/Other History</t>
+    <t>Physics</t>
   </si>
   <si>
-    <t/>
+    <t>Chemistry</t>
   </si>
 </sst>
 </file>
@@ -186,21 +129,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.84765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.3125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.58203125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.09765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.09765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.16015625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.34375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="10.0625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="28.60546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.1640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.9453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.3515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.015625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="7.09375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.51953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -234,16 +177,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
         <v>1.0</v>
@@ -263,13 +206,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="n">
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -278,33 +221,33 @@
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" t="n">
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -313,44 +256,40 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B5" t="n">
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B6" t="n">
         <v>5.0</v>
@@ -362,24 +301,20 @@
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B7" t="n">
         <v>6.0</v>
@@ -391,24 +326,20 @@
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B8" t="n">
         <v>7.0</v>
@@ -417,7 +348,7 @@
         <v>1.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
@@ -426,18 +357,14 @@
         <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" t="n">
         <v>8.0</v>
@@ -449,24 +376,20 @@
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B10" t="n">
         <v>9.0</v>
@@ -478,24 +401,20 @@
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B11" t="n">
         <v>10.0</v>
@@ -507,24 +426,20 @@
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B12" t="n">
         <v>11.0</v>
@@ -536,24 +451,20 @@
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B13" t="n">
         <v>12.0</v>
@@ -562,7 +473,7 @@
         <v>1.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n">
         <v>0.0</v>
@@ -571,18 +482,14 @@
         <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B14" t="n">
         <v>13.0</v>
@@ -594,24 +501,20 @@
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B15" t="n">
         <v>14.0</v>
@@ -623,24 +526,20 @@
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n">
         <v>0.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B16" t="n">
         <v>15.0</v>
@@ -652,24 +551,20 @@
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" t="s">
-        <v>29</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B17" t="n">
         <v>16.0</v>
@@ -681,24 +576,20 @@
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B18" t="n">
         <v>17.0</v>
@@ -707,7 +598,7 @@
         <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" t="n">
         <v>0.0</v>
@@ -716,18 +607,14 @@
         <v>0.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" t="s">
-        <v>30</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B19" t="n">
         <v>18.0</v>
@@ -739,24 +626,20 @@
         <v>0.0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" t="s">
-        <v>31</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B20" t="n">
         <v>19.0</v>
@@ -768,24 +651,20 @@
         <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B21" t="n">
         <v>20.0</v>
@@ -794,7 +673,7 @@
         <v>1.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E21" t="n">
         <v>0.0</v>
@@ -803,18 +682,14 @@
         <v>0.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B22" t="n">
         <v>21.0</v>
@@ -834,12 +709,543 @@
       <c r="G22" t="n">
         <v>1.0</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="s">
         <v>9</v>
       </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -848,21 +1254,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.84765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.51171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.23046875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.09765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.09765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.09765625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="3.8828125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="10.0625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="29.0546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.1640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.90625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.48828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.51953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.53515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -870,22 +1276,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -896,16 +1302,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -917,15 +1323,15 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="n">
         <v>2.0</v>
@@ -946,15 +1352,13 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" t="n">
         <v>3.0</v>
@@ -966,24 +1370,20 @@
         <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
+      <c r="H4"/>
+      <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B5" t="n">
         <v>4.0</v>
@@ -995,24 +1395,20 @@
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B6" t="n">
         <v>5.0</v>
@@ -1021,7 +1417,7 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
@@ -1030,18 +1426,14 @@
         <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B7" t="n">
         <v>6.0</v>
@@ -1050,7 +1442,7 @@
         <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
@@ -1059,18 +1451,14 @@
         <v>0.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B8" t="n">
         <v>7.0</v>
@@ -1082,24 +1470,20 @@
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" t="n">
         <v>8.0</v>
@@ -1111,24 +1495,20 @@
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B10" t="n">
         <v>9.0</v>
@@ -1137,7 +1517,7 @@
         <v>1.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
@@ -1146,18 +1526,14 @@
         <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B11" t="n">
         <v>10.0</v>
@@ -1166,7 +1542,7 @@
         <v>1.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E11" t="n">
         <v>0.0</v>
@@ -1175,18 +1551,14 @@
         <v>0.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B12" t="n">
         <v>11.0</v>
@@ -1195,7 +1567,7 @@
         <v>1.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E12" t="n">
         <v>0.0</v>
@@ -1204,18 +1576,14 @@
         <v>0.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B13" t="n">
         <v>12.0</v>
@@ -1224,7 +1592,7 @@
         <v>1.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n">
         <v>0.0</v>
@@ -1233,18 +1601,14 @@
         <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B14" t="n">
         <v>13.0</v>
@@ -1256,24 +1620,20 @@
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B15" t="n">
         <v>14.0</v>
@@ -1285,53 +1645,45 @@
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n">
         <v>0.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B16" t="n">
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" t="s">
-        <v>29</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B17" t="n">
         <v>16.0</v>
@@ -1343,24 +1695,20 @@
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B18" t="n">
         <v>17.0</v>
@@ -1369,7 +1717,7 @@
         <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" t="n">
         <v>0.0</v>
@@ -1378,18 +1726,14 @@
         <v>0.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>29</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B19" t="n">
         <v>18.0</v>
@@ -1404,21 +1748,17 @@
         <v>0.0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B20" t="n">
         <v>19.0</v>
@@ -1427,7 +1767,7 @@
         <v>1.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n">
         <v>0.0</v>
@@ -1436,18 +1776,14 @@
         <v>0.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B21" t="n">
         <v>20.0</v>
@@ -1459,49 +1795,549 @@
         <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B42" t="n">
         <v>21.0</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" t="s">
-        <v>40</v>
-      </c>
+      <c r="C42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/exportdata/conversion.xlsx
+++ b/exportdata/conversion.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
   <si>
     <t>Round#</t>
   </si>
@@ -42,6 +42,15 @@
     <t>Subcategory</t>
   </si>
   <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>Short Fiction/Other</t>
+  </si>
+  <si>
+    <t>Long Fiction</t>
+  </si>
+  <si>
     <t>Science</t>
   </si>
   <si>
@@ -60,9 +69,6 @@
     <t>new subcategory</t>
   </si>
   <si>
-    <t>Literature</t>
-  </si>
-  <si>
     <t>Star Wars!</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
   </si>
   <si>
     <t>0's</t>
+  </si>
+  <si>
+    <t>Drama</t>
   </si>
 </sst>
 </file>
@@ -129,21 +138,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.9453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.3515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.015625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="7.09375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.7265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.84765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.3125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.58203125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.09765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.09765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.16015625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.34375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.39453125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.4296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -177,25 +186,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -206,45 +215,45 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="n">
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" t="n">
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -256,50 +265,46 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B5" t="n">
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B6" t="n">
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -311,24 +316,20 @@
         <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B7" t="n">
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -340,24 +341,20 @@
         <v>0.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B8" t="n">
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -369,24 +366,20 @@
         <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" t="n">
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -398,24 +391,20 @@
         <v>0.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B10" t="n">
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
@@ -427,24 +416,20 @@
         <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B11" t="n">
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
@@ -456,24 +441,20 @@
         <v>0.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B12" t="n">
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
@@ -485,24 +466,20 @@
         <v>0.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B13" t="n">
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
@@ -514,24 +491,20 @@
         <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B14" t="n">
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
@@ -543,24 +516,20 @@
         <v>0.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B15" t="n">
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
@@ -572,24 +541,20 @@
         <v>0.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B16" t="n">
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
@@ -601,24 +566,20 @@
         <v>0.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B17" t="n">
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
@@ -630,24 +591,20 @@
         <v>0.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B18" t="n">
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
@@ -659,24 +616,20 @@
         <v>0.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B19" t="n">
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D19" t="n">
         <v>0.0</v>
@@ -688,24 +641,20 @@
         <v>0.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B20" t="n">
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20" t="n">
         <v>0.0</v>
@@ -717,24 +666,20 @@
         <v>0.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B21" t="n">
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D21" t="n">
         <v>0.0</v>
@@ -746,24 +691,20 @@
         <v>0.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B22" t="n">
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D22" t="n">
         <v>0.0</v>
@@ -775,13 +716,618 @@
         <v>0.0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H22" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H23" t="s">
         <v>12</v>
       </c>
-      <c r="I22" t="s">
-        <v>12</v>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -791,21 +1337,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.90625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.48828125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.51953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="15.53515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.84765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.51171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.23046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.09765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.09765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.09765625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="3.8828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="10.0625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.50390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -813,22 +1359,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -839,16 +1385,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -860,27 +1406,27 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="n">
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -889,21 +1435,19 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" t="n">
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -912,27 +1456,23 @@
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
+      <c r="H4"/>
+      <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B5" t="n">
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -944,24 +1484,20 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B6" t="n">
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -973,24 +1509,20 @@
         <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B7" t="n">
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -1002,24 +1534,20 @@
         <v>0.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B8" t="n">
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -1031,24 +1559,20 @@
         <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" t="n">
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -1060,24 +1584,20 @@
         <v>0.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B10" t="n">
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
@@ -1089,24 +1609,20 @@
         <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B11" t="n">
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
@@ -1118,24 +1634,20 @@
         <v>0.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B12" t="n">
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
@@ -1147,24 +1659,20 @@
         <v>0.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B13" t="n">
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
@@ -1176,24 +1684,20 @@
         <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B14" t="n">
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
@@ -1205,24 +1709,20 @@
         <v>0.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B15" t="n">
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
@@ -1234,27 +1734,23 @@
         <v>0.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B16" t="n">
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
@@ -1263,24 +1759,20 @@
         <v>0.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B17" t="n">
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
@@ -1292,24 +1784,20 @@
         <v>0.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B18" t="n">
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
@@ -1321,24 +1809,20 @@
         <v>0.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B19" t="n">
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D19" t="n">
         <v>0.0</v>
@@ -1350,24 +1834,20 @@
         <v>0.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B20" t="n">
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20" t="n">
         <v>0.0</v>
@@ -1379,24 +1859,20 @@
         <v>0.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B21" t="n">
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D21" t="n">
         <v>0.0</v>
@@ -1408,42 +1884,618 @@
         <v>0.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B26" t="n">
         <v>5.0</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B42" t="n">
         <v>21.0</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" t="s">
-        <v>12</v>
+      <c r="C42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/exportdata/conversion.xlsx
+++ b/exportdata/conversion.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="Tossups" r:id="rId3" sheetId="1"/>
     <sheet name="Bonuses" r:id="rId4" sheetId="2"/>
+    <sheet name="Tossups_by_category" r:id="rId5" sheetId="3"/>
+    <sheet name="bonuses_by_category" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="53">
   <si>
     <t>Round#</t>
   </si>
@@ -88,6 +90,90 @@
   </si>
   <si>
     <t>Drama</t>
+  </si>
+  <si>
+    <t>Rooms heard</t>
+  </si>
+  <si>
+    <t>+15</t>
+  </si>
+  <si>
+    <t>+10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5</t>
+  </si>
+  <si>
+    <t>American History</t>
+  </si>
+  <si>
+    <t>European/British History</t>
+  </si>
+  <si>
+    <t>World/Commonwealth History</t>
+  </si>
+  <si>
+    <t>Ancient/Other History</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Other Science</t>
+  </si>
+  <si>
+    <t>Non-Epic Poetry</t>
+  </si>
+  <si>
+    <t>Fine Arts</t>
+  </si>
+  <si>
+    <t>Visual Fine Arts</t>
+  </si>
+  <si>
+    <t>Auditory Fine Arts</t>
+  </si>
+  <si>
+    <t>Other Fine Arts</t>
+  </si>
+  <si>
+    <t>Beliefs</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Mythology</t>
+  </si>
+  <si>
+    <t>Thought</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>Social Science</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Current Events</t>
+  </si>
+  <si>
+    <t>Miscellaneous/Other Academic</t>
+  </si>
+  <si>
+    <t>Popular Culture</t>
   </si>
 </sst>
 </file>
@@ -144,15 +230,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.84765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.3125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.58203125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.09765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.09765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.16015625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.34375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.39453125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="18.4296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.1640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.9453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.3515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.015625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="7.09375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.7265625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1343,15 +1429,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.84765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.51171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.23046875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.09765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.09765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.09765625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="3.8828125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="10.0625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.50390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.1640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.90625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.48828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.51953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.53515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2501,4 +2587,1446 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="29.28125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.1015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.75390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.75390625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="7.09375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="29.28125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.1015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.75390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.75390625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="7.09375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>